--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-0.1/avg_0.004_scores.xlsx
@@ -49,123 +49,123 @@
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>love</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>loved</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cake</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>wife</t>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>pie</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
     <t>sturdy</t>
   </si>
   <si>
     <t>cheese</t>
   </si>
   <si>
+    <t>comfortable</t>
+  </si>
+  <si>
     <t>ever</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
+    <t>gift</t>
+  </si>
+  <si>
     <t>ze</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>years</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>cooking</t>
   </si>
   <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
     <t>kitchen</t>
   </si>
   <si>
@@ -178,37 +178,37 @@
     <t>pan</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>clean</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>quality</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>like</t>
+    <t>use</t>
   </si>
   <si>
     <t>positive</t>
@@ -638,13 +638,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.2558139534883721</v>
+        <v>0.310077519379845</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
@@ -688,13 +688,13 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <v>0.90625</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -714,13 +714,13 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>0.8695652173913043</v>
+        <v>0.890625</v>
       </c>
       <c r="L5">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="M5">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +740,13 @@
         <v>13</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.8622291021671826</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>557</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>557</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -766,13 +766,13 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <v>0.8591331269349846</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="L7">
-        <v>555</v>
+        <v>38</v>
       </c>
       <c r="M7">
-        <v>555</v>
+        <v>38</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -792,13 +792,13 @@
         <v>15</v>
       </c>
       <c r="K8">
-        <v>0.7954545454545454</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -818,13 +818,13 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>0.7532467532467533</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L9">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="M9">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -844,13 +844,13 @@
         <v>17</v>
       </c>
       <c r="K10">
-        <v>0.7333333333333333</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -870,13 +870,13 @@
         <v>18</v>
       </c>
       <c r="K11">
-        <v>0.7012987012987013</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="L11">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="M11">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>69</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -896,13 +896,13 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.6712328767123288</v>
+        <v>0.6745762711864407</v>
       </c>
       <c r="L12">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="M12">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -922,13 +922,13 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <v>0.6677966101694915</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L13">
-        <v>197</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>197</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>98</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -948,13 +948,13 @@
         <v>21</v>
       </c>
       <c r="K14">
-        <v>0.6338028169014085</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -974,13 +974,13 @@
         <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6323529411764706</v>
+        <v>0.637239165329053</v>
       </c>
       <c r="L15">
-        <v>43</v>
+        <v>794</v>
       </c>
       <c r="M15">
-        <v>43</v>
+        <v>794</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1000,13 +1000,13 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>0.6284109149277689</v>
+        <v>0.6342857142857142</v>
       </c>
       <c r="L16">
-        <v>783</v>
+        <v>111</v>
       </c>
       <c r="M16">
-        <v>783</v>
+        <v>111</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>463</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1026,13 +1026,13 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>0.625</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1052,13 +1052,13 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>0.6228571428571429</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L18">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="M18">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>66</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1078,13 +1078,13 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <v>0.609375</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1104,13 +1104,13 @@
         <v>27</v>
       </c>
       <c r="K20">
-        <v>0.6</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1130,13 +1130,13 @@
         <v>28</v>
       </c>
       <c r="K21">
-        <v>0.5918367346938775</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1156,13 +1156,13 @@
         <v>29</v>
       </c>
       <c r="K22">
-        <v>0.5789473684210527</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1182,13 +1182,13 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>0.5555555555555556</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L23">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M23">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1208,7 +1208,7 @@
         <v>31</v>
       </c>
       <c r="K24">
-        <v>0.5538461538461539</v>
+        <v>0.5625</v>
       </c>
       <c r="L24">
         <v>36</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1234,13 +1234,13 @@
         <v>32</v>
       </c>
       <c r="K25">
-        <v>0.5416666666666666</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="L25">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1260,13 +1260,13 @@
         <v>33</v>
       </c>
       <c r="K26">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="L26">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M26">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1286,13 +1286,13 @@
         <v>34</v>
       </c>
       <c r="K27">
-        <v>0.5299145299145299</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="L27">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M27">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1312,13 +1312,13 @@
         <v>35</v>
       </c>
       <c r="K28">
-        <v>0.5096153846153846</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L28">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1390,13 +1390,13 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0.4661654135338346</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L31">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>71</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1416,13 +1416,13 @@
         <v>39</v>
       </c>
       <c r="K32">
-        <v>0.45</v>
+        <v>0.443609022556391</v>
       </c>
       <c r="L32">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="M32">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1442,13 +1442,13 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>0.4074074074074074</v>
+        <v>0.41</v>
       </c>
       <c r="L33">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M33">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1468,13 +1468,13 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>0.3947368421052632</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>46</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1494,13 +1494,13 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>0.3915662650602409</v>
+        <v>0.3950617283950617</v>
       </c>
       <c r="L35">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="M35">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>101</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1520,13 +1520,13 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>0.3357843137254902</v>
+        <v>0.3382352941176471</v>
       </c>
       <c r="L36">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M36">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1546,13 +1546,13 @@
         <v>44</v>
       </c>
       <c r="K37">
-        <v>0.3151750972762646</v>
+        <v>0.3308270676691729</v>
       </c>
       <c r="L37">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="M37">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>176</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1572,13 +1572,13 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>0.3082706766917293</v>
+        <v>0.3190661478599222</v>
       </c>
       <c r="L38">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="M38">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>92</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1598,13 +1598,13 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>0.3063063063063063</v>
+        <v>0.3153153153153153</v>
       </c>
       <c r="L39">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M39">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1624,13 +1624,13 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>0.2753424657534246</v>
+        <v>0.302158273381295</v>
       </c>
       <c r="L40">
-        <v>201</v>
+        <v>42</v>
       </c>
       <c r="M40">
-        <v>201</v>
+        <v>42</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>529</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1676,13 +1676,13 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>0.2661870503597122</v>
+        <v>0.2616438356164383</v>
       </c>
       <c r="L42">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="M42">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>102</v>
+        <v>539</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1702,13 +1702,13 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>0.2440191387559809</v>
+        <v>0.2535885167464115</v>
       </c>
       <c r="L43">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M43">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1728,13 +1728,13 @@
         <v>51</v>
       </c>
       <c r="K44">
-        <v>0.240043057050592</v>
+        <v>0.2260495156081808</v>
       </c>
       <c r="L44">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="M44">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>706</v>
+        <v>719</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1780,13 +1780,13 @@
         <v>53</v>
       </c>
       <c r="K46">
-        <v>0.2225705329153605</v>
+        <v>0.219435736677116</v>
       </c>
       <c r="L46">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M46">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1806,13 +1806,13 @@
         <v>54</v>
       </c>
       <c r="K47">
-        <v>0.2214765100671141</v>
+        <v>0.1854304635761589</v>
       </c>
       <c r="L47">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="M47">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>116</v>
+        <v>615</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1832,13 +1832,13 @@
         <v>55</v>
       </c>
       <c r="K48">
-        <v>0.1668874172185431</v>
+        <v>0.1662404092071611</v>
       </c>
       <c r="L48">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M48">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>629</v>
+        <v>652</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1858,25 +1858,25 @@
         <v>56</v>
       </c>
       <c r="K49">
-        <v>0.1649616368286445</v>
+        <v>0.1324324324324324</v>
       </c>
       <c r="L49">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="M49">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>653</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1884,13 +1884,13 @@
         <v>57</v>
       </c>
       <c r="K50">
-        <v>0.127147766323024</v>
+        <v>0.121654501216545</v>
       </c>
       <c r="L50">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="M50">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>254</v>
+        <v>361</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1910,13 +1910,13 @@
         <v>58</v>
       </c>
       <c r="K51">
-        <v>0.1265206812652068</v>
+        <v>0.1168384879725086</v>
       </c>
       <c r="L51">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="M51">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>359</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1936,13 +1936,13 @@
         <v>59</v>
       </c>
       <c r="K52">
-        <v>0.1136363636363636</v>
+        <v>0.1113636363636364</v>
       </c>
       <c r="L52">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M52">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -1962,7 +1962,7 @@
         <v>60</v>
       </c>
       <c r="K53">
-        <v>0.1132075471698113</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="L53">
         <v>42</v>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>329</v>
+        <v>414</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -1988,25 +1988,25 @@
         <v>61</v>
       </c>
       <c r="K54">
-        <v>0.1008771929824561</v>
+        <v>0.08034433285509325</v>
       </c>
       <c r="L54">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="M54">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54">
-        <v>410</v>
+        <v>641</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2014,13 +2014,13 @@
         <v>62</v>
       </c>
       <c r="K55">
-        <v>0.09069212410501193</v>
+        <v>0.07875894988066826</v>
       </c>
       <c r="L55">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M55">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2040,13 +2040,13 @@
         <v>63</v>
       </c>
       <c r="K56">
-        <v>0.06156716417910447</v>
+        <v>0.05597014925373135</v>
       </c>
       <c r="L56">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M56">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>1006</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2066,25 +2066,25 @@
         <v>64</v>
       </c>
       <c r="K57">
-        <v>0.05444126074498568</v>
+        <v>0.03200692041522491</v>
       </c>
       <c r="L57">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M57">
         <v>38</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>660</v>
+        <v>1119</v>
       </c>
     </row>
   </sheetData>
